--- a/inst/project-testdat/definitions.xlsx
+++ b/inst/project-testdat/definitions.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Base checks" sheetId="1" r:id="rId1"/>
-    <sheet name="Value checks" sheetId="2" r:id="rId2"/>
-    <sheet name="Consistency checks" sheetId="3" r:id="rId3"/>
-    <sheet name="Custom" sheetId="4" r:id="rId4"/>
+    <sheet name="Base definitions" sheetId="5" r:id="rId1"/>
+    <sheet name="Base checks" sheetId="1" r:id="rId2"/>
+    <sheet name="Value checks" sheetId="2" r:id="rId3"/>
+    <sheet name="Consistency checks" sheetId="3" r:id="rId4"/>
+    <sheet name="Custom" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base checks'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Consistency checks'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Custom!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Value checks'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Base checks'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base definitions'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Consistency checks'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Custom!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Value checks'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Variable</t>
   </si>
@@ -81,6 +83,18 @@
   </si>
   <si>
     <t>Range 4</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Missing Values</t>
+  </si>
+  <si>
+    <t>Missing Valid</t>
   </si>
 </sst>
 </file>
@@ -457,6 +471,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -467,10 +514,11 @@
     <col min="1" max="1" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,14 +528,20 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -546,7 +600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -584,7 +638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
